--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H2">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I2">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J2">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>145.5939609605186</v>
+        <v>19.60872431062066</v>
       </c>
       <c r="R2">
-        <v>1310.345648644668</v>
+        <v>176.478518795586</v>
       </c>
       <c r="S2">
-        <v>0.0004833795231971438</v>
+        <v>7.379918144388852E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004833795231971438</v>
+        <v>7.379918144388854E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H3">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I3">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J3">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>1116.716911467069</v>
+        <v>1852.531321941151</v>
       </c>
       <c r="R3">
-        <v>10050.45220320362</v>
+        <v>16672.78189747036</v>
       </c>
       <c r="S3">
-        <v>0.003707558230093888</v>
+        <v>0.006972166725010898</v>
       </c>
       <c r="T3">
-        <v>0.003707558230093887</v>
+        <v>0.006972166725010899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H4">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I4">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J4">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>185.6778668450853</v>
+        <v>296.8293911772886</v>
       </c>
       <c r="R4">
-        <v>1671.100801605768</v>
+        <v>2671.464520595598</v>
       </c>
       <c r="S4">
-        <v>0.0006164601756262321</v>
+        <v>0.001117143866697482</v>
       </c>
       <c r="T4">
-        <v>0.0006164601756262321</v>
+        <v>0.001117143866697483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.159891999999999</v>
+        <v>10.218698</v>
       </c>
       <c r="H5">
-        <v>18.479676</v>
+        <v>30.656094</v>
       </c>
       <c r="I5">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="J5">
-        <v>0.007079533182016282</v>
+        <v>0.01131191978527373</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>684.3673665543292</v>
+        <v>836.6508439007225</v>
       </c>
       <c r="R5">
-        <v>6159.306298988962</v>
+        <v>7529.857595106503</v>
       </c>
       <c r="S5">
-        <v>0.002272135253099019</v>
+        <v>0.003148810012121463</v>
       </c>
       <c r="T5">
-        <v>0.002272135253099019</v>
+        <v>0.003148810012121464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I6">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J6">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>18234.34901463797</v>
+        <v>1480.381931757069</v>
       </c>
       <c r="R6">
-        <v>164109.1411317417</v>
+        <v>13323.43738581362</v>
       </c>
       <c r="S6">
-        <v>0.06053898715549178</v>
+        <v>0.00557154932964306</v>
       </c>
       <c r="T6">
-        <v>0.06053898715549178</v>
+        <v>0.005571549329643061</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I7">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J7">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>139858.8635126214</v>
@@ -883,10 +883,10 @@
         <v>1258729.771613593</v>
       </c>
       <c r="S7">
-        <v>0.4643387013693383</v>
+        <v>0.5263712968473719</v>
       </c>
       <c r="T7">
-        <v>0.4643387013693382</v>
+        <v>0.526371296847372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I8">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J8">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>23254.50180770121</v>
+        <v>22409.45716572219</v>
       </c>
       <c r="R8">
-        <v>209290.5162693109</v>
+        <v>201685.1144914997</v>
       </c>
       <c r="S8">
-        <v>0.07720615554268721</v>
+        <v>0.08433998914128409</v>
       </c>
       <c r="T8">
-        <v>0.07720615554268721</v>
+        <v>0.0843399891412841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2314.415101</v>
       </c>
       <c r="I9">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644313</v>
       </c>
       <c r="J9">
-        <v>0.8866485810946614</v>
+        <v>0.8540056659644314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>85710.92738773895</v>
+        <v>63163.86384345723</v>
       </c>
       <c r="R9">
-        <v>771398.3464896504</v>
+        <v>568474.7745911151</v>
       </c>
       <c r="S9">
-        <v>0.2845647370271441</v>
+        <v>0.2377228306461322</v>
       </c>
       <c r="T9">
-        <v>0.2845647370271441</v>
+        <v>0.2377228306461322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H10">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I10">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J10">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>2175.730640555191</v>
+        <v>232.5933870957444</v>
       </c>
       <c r="R10">
-        <v>19581.57576499672</v>
+        <v>2093.3404838617</v>
       </c>
       <c r="S10">
-        <v>0.007223538893362341</v>
+        <v>0.0008753859407177378</v>
       </c>
       <c r="T10">
-        <v>0.007223538893362341</v>
+        <v>0.0008753859407177378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H11">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I11">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J11">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>16688.02184565833</v>
+        <v>21974.22576020758</v>
       </c>
       <c r="R11">
-        <v>150192.196610925</v>
+        <v>197768.0318418682</v>
       </c>
       <c r="S11">
-        <v>0.05540510052505072</v>
+        <v>0.08270195695944273</v>
       </c>
       <c r="T11">
-        <v>0.0554051005250507</v>
+        <v>0.08270195695944273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H12">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I12">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J12">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>2774.737506298969</v>
+        <v>3520.909998520345</v>
       </c>
       <c r="R12">
-        <v>24972.63755669072</v>
+        <v>31688.1899866831</v>
       </c>
       <c r="S12">
-        <v>0.009212272843897284</v>
+        <v>0.01325125855778731</v>
       </c>
       <c r="T12">
-        <v>0.009212272843897284</v>
+        <v>0.01325125855778731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.05234666666666</v>
+        <v>121.2114333333333</v>
       </c>
       <c r="H13">
-        <v>276.15704</v>
+        <v>363.6343</v>
       </c>
       <c r="I13">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="J13">
-        <v>0.1057953033444633</v>
+        <v>0.1341789346279459</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>10227.06600593206</v>
+        <v>9924.126144910977</v>
       </c>
       <c r="R13">
-        <v>92043.59405338854</v>
+        <v>89317.1353041988</v>
       </c>
       <c r="S13">
-        <v>0.03395439108215294</v>
+        <v>0.03735033316999811</v>
       </c>
       <c r="T13">
-        <v>0.03395439108215294</v>
+        <v>0.03735033316999811</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H14">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I14">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J14">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>9.80114288302811</v>
+        <v>0.8727601767038888</v>
       </c>
       <c r="R14">
-        <v>88.210285947253</v>
+        <v>7.854841590334999</v>
       </c>
       <c r="S14">
-        <v>3.254030416048605E-05</v>
+        <v>3.284710704137174E-06</v>
       </c>
       <c r="T14">
-        <v>3.254030416048605E-05</v>
+        <v>3.284710704137174E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H15">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I15">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J15">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>75.17552195829489</v>
+        <v>82.45388829354556</v>
       </c>
       <c r="R15">
-        <v>676.579697624654</v>
+        <v>742.08499464191</v>
       </c>
       <c r="S15">
-        <v>0.0002495866430212104</v>
+        <v>0.0003103225567628413</v>
       </c>
       <c r="T15">
-        <v>0.0002495866430212104</v>
+        <v>0.0003103225567628413</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H16">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I16">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J16">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>12.49952464483089</v>
+        <v>13.21151074343389</v>
       </c>
       <c r="R16">
-        <v>112.495721803478</v>
+        <v>118.903596690905</v>
       </c>
       <c r="S16">
-        <v>4.149907196114915E-05</v>
+        <v>4.972269807345255E-05</v>
       </c>
       <c r="T16">
-        <v>4.149907196114915E-05</v>
+        <v>4.972269807345256E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4146736666666667</v>
+        <v>0.4548216666666667</v>
       </c>
       <c r="H17">
-        <v>1.244021</v>
+        <v>1.364465</v>
       </c>
       <c r="I17">
-        <v>0.0004765823788590816</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="J17">
-        <v>0.0004765823788590817</v>
+        <v>0.0005034796223489374</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>46.07047091671322</v>
+        <v>37.23829897321556</v>
       </c>
       <c r="R17">
-        <v>414.6342382504189</v>
+        <v>335.14469075894</v>
       </c>
       <c r="S17">
-        <v>0.0001529563597162361</v>
+        <v>0.0001401496568085064</v>
       </c>
       <c r="T17">
-        <v>0.0001529563597162361</v>
+        <v>0.0001401496568085064</v>
       </c>
     </row>
   </sheetData>
